--- a/Data/Data_new.xlsx
+++ b/Data/Data_new.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/joanneModel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D996102A-C0D6-5841-B330-0E34BF42C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E10A45A-237E-9E41-9D74-169EDE166F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
   </bookViews>
   <sheets>
     <sheet name="3yr" sheetId="4" r:id="rId1"/>
     <sheet name="4yr" sheetId="5" r:id="rId2"/>
+    <sheet name="5yr" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -887,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990CF00B-CC4F-704A-9D46-40841DCD5560}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,6 +1293,125 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE85B424-1523-9E41-B08F-CB854678DEA3}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="31" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data_new.xlsx
+++ b/Data/Data_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/joanneModel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E10A45A-237E-9E41-9D74-169EDE166F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023F2762-1ADC-004B-82B7-3A2AE8B7B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
   </bookViews>
   <sheets>
     <sheet name="3yr" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>I asked the "do you remember many movies watched before" Q before the "do you want to watch this movie again" Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">said inconsistent test video looks same as consistent test video </t>
+  </si>
+  <si>
+    <t>pretest was B, but was shown A</t>
+  </si>
+  <si>
+    <t>meat to be B but shown A</t>
   </si>
 </sst>
 </file>
@@ -525,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B9A72-F2BC-1946-917E-7D386FB1F6C5}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,6 +890,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -890,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990CF00B-CC4F-704A-9D46-40841DCD5560}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1329,7 +1394,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,10 +1472,224 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>3</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>3</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Data_new.xlsx
+++ b/Data/Data_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/joanneModel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023F2762-1ADC-004B-82B7-3A2AE8B7B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697D436D-3866-3A46-A377-1D23430ECDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>meat to be B but shown A</t>
+  </si>
+  <si>
+    <t>had trouble understanding Q phrasing, treated it as which one he likes prior to repeated reminders of what the Q is actually asking</t>
+  </si>
+  <si>
+    <t>lost attention at test videos</t>
+  </si>
+  <si>
+    <t>hesistant to answer "like/not like" b/c he recognized similiarities and differences, pointed out shapes but also followed motion with head</t>
+  </si>
+  <si>
+    <t>did not seem to get "like/not like" in pretest &amp; mom stepped in and rephrased as "same or not the same," I had to rephrase to "more the same/more different" in first test trial</t>
   </si>
 </sst>
 </file>
@@ -534,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B9A72-F2BC-1946-917E-7D386FB1F6C5}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,6 +956,224 @@
       </c>
       <c r="R7" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1391,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE85B424-1523-9E41-B08F-CB854678DEA3}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1689,8 +1919,119 @@
       <c r="Q5" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="R5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data_new.xlsx
+++ b/Data/Data_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/joanneModel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697D436D-3866-3A46-A377-1D23430ECDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E3415D-50B1-2545-A352-7C6E4388F86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
   </bookViews>
   <sheets>
     <sheet name="3yr" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>did not seem to get "like/not like" in pretest &amp; mom stepped in and rephrased as "same or not the same," I had to rephrase to "more the same/more different" in first test trial</t>
+  </si>
+  <si>
+    <t>3 then 2</t>
+  </si>
+  <si>
+    <t>very distracted and did not appear to look at screen often even when prompted that it was a new video</t>
   </si>
 </sst>
 </file>
@@ -548,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B9A72-F2BC-1946-917E-7D386FB1F6C5}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1621,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE85B424-1523-9E41-B08F-CB854678DEA3}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2032,6 +2038,62 @@
         <v>38</v>
       </c>
     </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data_new.xlsx
+++ b/Data/Data_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/joanneModel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E3415D-50B1-2545-A352-7C6E4388F86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F530406-CF89-CB40-B208-BBCBFC485442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{58282CEB-ABC6-4F29-A274-B04900CD887C}"/>
   </bookViews>
   <sheets>
     <sheet name="3yr" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -153,6 +153,69 @@
   </si>
   <si>
     <t>very distracted and did not appear to look at screen often even when prompted that it was a new video</t>
+  </si>
+  <si>
+    <t>4.10.</t>
+  </si>
+  <si>
+    <t>said the 2 test videos were the same</t>
+  </si>
+  <si>
+    <t>5.10.</t>
+  </si>
+  <si>
+    <t>5.0.</t>
+  </si>
+  <si>
+    <t>4.0.</t>
+  </si>
+  <si>
+    <t>started with 3 then 2 (for 2 shapes) then 3 (due to skip button not processing)</t>
+  </si>
+  <si>
+    <t>3 then 2 for last shape</t>
+  </si>
+  <si>
+    <t>playlist played in random order, had to puase and resolve problem, kid would have seen about 3 videos more than had things gone to plan, ran off just before last familiarization shape, kept saying "I don't know" for last test Q</t>
+  </si>
+  <si>
+    <t>in both pretest kid seemed to understood "like or not like" as which one does he likes, focused on shape during familiarization including relating funny shapes to real-life objects such as shape 8 to cloud</t>
+  </si>
+  <si>
+    <t>3.0.</t>
+  </si>
+  <si>
+    <t>extremely distracted, long pauses throughout session, probably only truly saw each video once, rephrase to "more the same/more different" in first test trial</t>
+  </si>
+  <si>
+    <t>unsure if he understood "like" as similar and not the same</t>
+  </si>
+  <si>
+    <t>kid did not understand the Q in English, parents translated to Czech</t>
+  </si>
+  <si>
+    <t>conducted in Mandarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 then 2  </t>
+  </si>
+  <si>
+    <t>conducted in Longdu dialect</t>
+  </si>
+  <si>
+    <t>quite distracted, long pauses throughout session</t>
+  </si>
+  <si>
+    <t>said he didn't remember the many many movies</t>
+  </si>
+  <si>
+    <t>"videos" was used in place of "movies," she mentioned the hearts and crosses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very calm, zero fidgeting </t>
+  </si>
+  <si>
+    <t>had trouble answering pretest q and mom restated q and also reasked to "do they look the same," traced motion with fingers</t>
   </si>
 </sst>
 </file>
@@ -552,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B9A72-F2BC-1946-917E-7D386FB1F6C5}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,6 +1245,339 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1189,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990CF00B-CC4F-704A-9D46-40841DCD5560}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1598,6 +1994,12 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1618,6 +2020,251 @@
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1627,9 +2274,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE85B424-1523-9E41-B08F-CB854678DEA3}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -1824,8 +2471,8 @@
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5">
-        <v>5</v>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
@@ -2092,6 +2739,495 @@
       </c>
       <c r="R8" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
